--- a/InputData/elec/MPCbS/Max Potential Capacity by Source.xlsx
+++ b/InputData/elec/MPCbS/Max Potential Capacity by Source.xlsx
@@ -1,22 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI - units progress\InputData\elec\MPCbS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World Resources Institute\TRAC City - HK 2050 is now\EPS HK 2.0\eps-2.0.0-us-wipF\InputData\elec\MPCbS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_DA0B16DDF95B9A634FCE9795D391283BA581C291" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1E1B1DCC-1476-42A2-977F-EEF86F326414}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="405" windowWidth="22755" windowHeight="12300"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="MPCbS" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -299,7 +308,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.00000%"/>
@@ -523,6 +532,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -558,6 +584,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -733,10 +776,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
@@ -870,8 +913,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
-    <hyperlink ref="B21" r:id="rId2"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B21" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
@@ -879,10 +922,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1295,13 +1340,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1468,6 +1515,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095990DC6317597479C114DD4E6AB1F33" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="00c0eb7d4c43453177323eb1ac58d7e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7889d872-e2a2-4afb-87bc-97561eced75f" xmlns:ns3="c9df191c-55f2-496b-9838-9a5abe4742ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5fe72540fcc493259a136614ad94e00" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1701,32 +1766,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DCEA918-F8CA-42E5-A154-0B6CCB042CBA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E120499B-4768-46CF-9110-0BEA97DAD0A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4528C300-D76E-45B9-B033-BA3DB07D4B33}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4528C300-D76E-45B9-B033-BA3DB07D4B33}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E120499B-4768-46CF-9110-0BEA97DAD0A9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2DCEA918-F8CA-42E5-A154-0B6CCB042CBA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
+    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>